--- a/src/test/resources/TDD_AdvantageOnlineShoppingData.xlsx
+++ b/src/test/resources/TDD_AdvantageOnlineShoppingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.junior\eclipse-XPTO\TDD_AdvantageOnlineShopping\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F3302B-AFB6-4E3E-9D55-B4B1AD6E87CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EEA87F-6225-484A-9455-C12D885DDBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="586" activeTab="2" xr2:uid="{D4DEB64E-DE7E-45FC-8D49-61962D919F60}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="586" activeTab="2" xr2:uid="{D4DEB64E-DE7E-45FC-8D49-61962D919F60}"/>
   </bookViews>
   <sheets>
     <sheet name="AcessarUmProdutoPelaHome_Po" sheetId="1" r:id="rId1"/>
@@ -179,13 +179,13 @@
     <t>DeveTentarCadasTrarUmNovoClienteComFalha</t>
   </si>
   <si>
-    <t>autoTeste017</t>
-  </si>
-  <si>
-    <t>autoTeste027</t>
-  </si>
-  <si>
-    <t>autoTeste037</t>
+    <t>autoTeste019</t>
+  </si>
+  <si>
+    <t>autoTeste029</t>
+  </si>
+  <si>
+    <t>autoTeste039</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/TDD_AdvantageOnlineShoppingData.xlsx
+++ b/src/test/resources/TDD_AdvantageOnlineShoppingData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\george.junior\eclipse-XPTO\TDD_AdvantageOnlineShopping\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EEA87F-6225-484A-9455-C12D885DDBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F028E5B-C160-4BF9-86CB-E182D8903029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="586" activeTab="2" xr2:uid="{D4DEB64E-DE7E-45FC-8D49-61962D919F60}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="586" firstSheet="2" activeTab="2" xr2:uid="{D4DEB64E-DE7E-45FC-8D49-61962D919F60}"/>
   </bookViews>
   <sheets>
     <sheet name="AcessarUmProdutoPelaHome_Po" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Iphone</t>
   </si>
   <si>
-    <t>Sansung</t>
-  </si>
-  <si>
     <t>Xiaomi</t>
   </si>
   <si>
@@ -179,13 +176,16 @@
     <t>DeveTentarCadasTrarUmNovoClienteComFalha</t>
   </si>
   <si>
-    <t>autoTeste019</t>
-  </si>
-  <si>
-    <t>autoTeste029</t>
-  </si>
-  <si>
-    <t>autoTeste039</t>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>autoTeste100</t>
+  </si>
+  <si>
+    <t>autoTeste101</t>
+  </si>
+  <si>
+    <t>autoTeste102</t>
   </si>
 </sst>
 </file>
@@ -573,21 +573,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,31 +595,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -645,13 +645,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,31 +659,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +704,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,40 +724,40 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -765,34 +765,34 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
       </c>
       <c r="H2">
         <v>989997979</v>
       </c>
       <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
       </c>
       <c r="M2">
         <v>18060605</v>
@@ -803,34 +803,34 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
       </c>
       <c r="H3">
         <v>989997979</v>
       </c>
       <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
       </c>
       <c r="M3">
         <v>18060605</v>
@@ -841,34 +841,34 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
       </c>
       <c r="H4">
         <v>989997979</v>
       </c>
       <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
       </c>
       <c r="M4">
         <v>18060605</v>
@@ -909,78 +909,78 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
       </c>
       <c r="H2">
         <v>989997979</v>
       </c>
       <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
       </c>
       <c r="M2">
         <v>18060605</v>
@@ -988,34 +988,34 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
       </c>
       <c r="H3">
         <v>989997979</v>
       </c>
       <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
       </c>
       <c r="M3">
         <v>18060605</v>
@@ -1023,37 +1023,37 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
       </c>
       <c r="H4">
         <v>989997979</v>
       </c>
       <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
       </c>
       <c r="M4">
         <v>18060605</v>
@@ -1114,18 +1114,18 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1138,12 +1138,12 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
